--- a/SessionLibrary/SessionLIbraryExcel.Tests/bin/Debug/AverageMarkBySpecification.xlsx
+++ b/SessionLibrary/SessionLIbraryExcel.Tests/bin/Debug/AverageMarkBySpecification.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Session(2018 2019)" sheetId="1" r:id="rId1"/>
+    <sheet name="Session(2019)" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -23,13 +23,13 @@
     <t>First</t>
   </si>
   <si>
-    <t>6,62</t>
+    <t>6,5</t>
   </si>
   <si>
     <t>Second</t>
   </si>
   <si>
-    <t>7</t>
+    <t>5</t>
   </si>
   <si>
     <t>Third</t>
@@ -42,7 +42,7 @@
 Fourth</t>
   </si>
   <si>
-    <t>3,75</t>
+    <t>4,14</t>
   </si>
 </sst>
 </file>

--- a/SessionLibrary/SessionLIbraryExcel.Tests/bin/Debug/AverageMarkBySpecification.xlsx
+++ b/SessionLibrary/SessionLIbraryExcel.Tests/bin/Debug/AverageMarkBySpecification.xlsx
@@ -23,13 +23,13 @@
     <t>First</t>
   </si>
   <si>
-    <t>6,5</t>
+    <t>6,62</t>
   </si>
   <si>
     <t>Second</t>
   </si>
   <si>
-    <t>5</t>
+    <t>7</t>
   </si>
   <si>
     <t>Third</t>
@@ -38,11 +38,10 @@
     <t>6,83</t>
   </si>
   <si>
-    <t xml:space="preserve">_x000D_
-Fourth</t>
+    <t>Fourth</t>
   </si>
   <si>
-    <t>4,14</t>
+    <t>3,75</t>
   </si>
 </sst>
 </file>
